--- a/TestDataFile/Suggestion.xlsx
+++ b/TestDataFile/Suggestion.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22451" windowHeight="9467" activeTab="3"/>
+    <workbookView windowWidth="17951" windowHeight="8495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Suggestion" sheetId="1" r:id="rId1"/>
@@ -13,11 +13,12 @@
     <sheet name="Bugs_4_29_2019" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <oleSize ref="A1:F14"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>S.no</t>
   </si>
@@ -144,12 +145,6 @@
 perform here. On which basis it will switch to Tab "Title" or "URL" ?</t>
   </si>
   <si>
-    <t>Application</t>
-  </si>
-  <si>
-    <t>Expected Behaviour</t>
-  </si>
-  <si>
     <t>Fog Chain</t>
   </si>
   <si>
@@ -203,6 +198,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>The test suites doesn't execute in window OS for Edge 
 browser in "Sauce Lab" enviroment and when trying to execute then getting the error "</t>
     </r>
@@ -358,6 +360,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>The test suites doesn't execute in mac OS for FireFox 
 browser in "Sauce Lab" enviroment and when trying to execute then getting the error "</t>
     </r>
@@ -534,6 +543,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>The test suites doesn't execute in mac OS for Safari 
 browser in "Sauce Lab" enviroment and when trying to execute then getting the error "</t>
     </r>
@@ -710,6 +726,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>The test suites doesn't execute in linux OS for firefox 
 browser in "Sauce Lab" enviroment and when trying to execute then getting the error "</t>
     </r>
@@ -886,6 +909,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>SauceLab</t>
     </r>
     <r>
@@ -946,6 +977,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>BrowserStack</t>
     </r>
     <r>
@@ -1003,9 +1042,6 @@
   </si>
   <si>
     <t>On entring any words or wrong credentials of browser stack then it should show an error message and should not allow to move next page.</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -1013,10 +1049,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1037,7 +1073,15 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1051,6 +1095,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1058,8 +1110,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1074,14 +1127,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1095,23 +1141,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1127,24 +1170,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1159,38 +1209,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1212,55 +1242,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1278,7 +1278,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1290,7 +1338,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,25 +1386,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1332,99 +1416,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1444,11 +1451,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1477,15 +1490,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1497,6 +1501,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1516,21 +1538,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1546,15 +1553,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1564,208 +1571,175 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1773,7 +1747,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3264,196 +3237,196 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="11.1111111111111" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="83.4444444444444" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="33.2222222222222" collapsed="false"/>
+    <col min="1" max="1" width="11.1111111111111" customWidth="1"/>
+    <col min="2" max="2" width="83.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="33.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="18">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="18"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="18"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="18"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" ht="6" customHeight="1" spans="1:3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="18"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" hidden="1" spans="1:3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" hidden="1" spans="1:3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" hidden="1" spans="1:3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" ht="1" hidden="1" customHeight="1" spans="1:3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="1"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" hidden="1" spans="1:3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="18"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" hidden="1" spans="1:3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="18"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="1"/>
     </row>
     <row r="13" hidden="1" spans="1:3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="18"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="18">
+      <c r="A14" s="1">
         <v>2</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="18"/>
+      <c r="C14" s="1"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="1"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="1"/>
     </row>
     <row r="17" ht="11" customHeight="1" spans="1:3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="1"/>
     </row>
     <row r="18" ht="9" hidden="1" customHeight="1" spans="1:3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="18"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" hidden="1" spans="1:3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="18"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" hidden="1" spans="1:3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="18"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" hidden="1" spans="1:3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="1"/>
     </row>
     <row r="22" hidden="1" spans="1:3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" hidden="1" spans="1:3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="1"/>
     </row>
     <row r="24" hidden="1" spans="1:3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" ht="14" customHeight="1" spans="1:3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="18"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="22"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="18">
+      <c r="A27" s="1">
         <v>3</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="22"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="18">
+      <c r="A28" s="1">
         <v>4</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C28" s="22"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" ht="76" customHeight="1" spans="1:3">
-      <c r="A29" s="4">
+      <c r="A29" s="1">
         <v>5</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" ht="66" customHeight="1" spans="1:3">
-      <c r="A30" s="4">
+      <c r="A30" s="1">
         <v>6</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" ht="58" customHeight="1" spans="1:2">
-      <c r="A31" s="25">
+      <c r="A31" s="14">
         <v>7</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="15" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3471,7 +3444,7 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="1025" progId="Package" r:id="rId3">
           <objectPr defaultSize="0" r:id="rId4">
@@ -3496,7 +3469,7 @@
         <oleObject shapeId="1025" progId="Package" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="1026" progId="Package" r:id="rId5">
           <objectPr defaultSize="0" r:id="rId6">
@@ -3521,7 +3494,7 @@
         <oleObject shapeId="1026" progId="Package" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="1028" progId="PBrush" r:id="rId7">
           <objectPr defaultSize="0" r:id="rId8">
@@ -3546,7 +3519,7 @@
         <oleObject shapeId="1028" progId="PBrush" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="1030" progId="Package" r:id="rId9">
           <objectPr defaultSize="0" r:id="rId10">
@@ -3571,7 +3544,7 @@
         <oleObject shapeId="1030" progId="Package" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="1031" progId="Package" r:id="rId11">
           <objectPr defaultSize="0" r:id="rId12">
@@ -3596,7 +3569,7 @@
         <oleObject shapeId="1031" progId="Package" r:id="rId11"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="1033" progId="Package" r:id="rId13">
           <objectPr defaultSize="0" r:id="rId14">
@@ -3636,102 +3609,102 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="26.4444444444444" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="66.8888888888889" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="31.7777777777778" collapsed="false"/>
+    <col min="2" max="2" width="26.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="66.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="31.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" ht="53" customHeight="1" spans="1:4">
-      <c r="A2" s="13">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="13"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" ht="60" customHeight="1" spans="1:4">
-      <c r="A3" s="13">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="13"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" ht="51" customHeight="1" spans="1:4">
-      <c r="A4" s="13">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="5"/>
     </row>
     <row r="5" ht="63" customHeight="1" spans="1:4">
-      <c r="A5" s="13">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="13"/>
+      <c r="D5" s="5"/>
     </row>
     <row r="6" ht="63" customHeight="1" spans="1:4">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="5"/>
     </row>
     <row r="7" ht="51" customHeight="1" spans="1:4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="13"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8" ht="53" customHeight="1" spans="1:4">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3739,7 +3712,7 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="2050" progId="Package" r:id="rId3">
           <objectPr defaultSize="0" r:id="rId4">
@@ -3764,7 +3737,7 @@
         <oleObject shapeId="2050" progId="Package" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="2051" progId="Package" r:id="rId5">
           <objectPr defaultSize="0" r:id="rId6">
@@ -3789,7 +3762,7 @@
         <oleObject shapeId="2051" progId="Package" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="2052" progId="Package" r:id="rId7">
           <objectPr defaultSize="0" r:id="rId8">
@@ -3814,7 +3787,7 @@
         <oleObject shapeId="2052" progId="Package" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="2053" progId="Package" r:id="rId9">
           <objectPr defaultSize="0" r:id="rId10">
@@ -3839,7 +3812,7 @@
         <oleObject shapeId="2053" progId="Package" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="2054" progId="Package" r:id="rId11">
           <objectPr defaultSize="0" r:id="rId12">
@@ -3864,7 +3837,7 @@
         <oleObject shapeId="2054" progId="Package" r:id="rId11"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="2055" progId="Package" r:id="rId13">
           <objectPr defaultSize="0" r:id="rId14">
@@ -3889,7 +3862,7 @@
         <oleObject shapeId="2055" progId="Package" r:id="rId13"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="2056" progId="Package" r:id="rId15">
           <objectPr defaultSize="0" r:id="rId16">
@@ -3929,29 +3902,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.8888888888889" collapsed="false"/>
-    <col min="2" max="2" customWidth="true" width="61.0" collapsed="false"/>
+    <col min="1" max="1" width="28.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="61" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" ht="28.8" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="6" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -3962,221 +3935,216 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="11.4444444444444" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="47.2222222222222" collapsed="false"/>
-    <col min="4" max="4" customWidth="true" width="51.7777777777778" collapsed="false"/>
-    <col min="5" max="5" customWidth="true" width="35.2222222222222" collapsed="false"/>
+    <col min="2" max="2" width="11.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="47.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="51.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="35.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="F1" t="s" s="27">
-        <v>58</v>
-      </c>
-    </row>
     <row r="2" ht="53" customHeight="1" spans="1:5">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" ht="63" customHeight="1" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" ht="63" customHeight="1" spans="1:5">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" ht="61" customHeight="1" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" ht="61" customHeight="1" spans="1:5">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" ht="56" customHeight="1" spans="1:5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" ht="56" customHeight="1" spans="1:5">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" ht="72" customHeight="1" spans="1:5">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" ht="72" customHeight="1" spans="1:5">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" ht="59" customHeight="1" spans="1:5">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="8"/>
-    </row>
-    <row r="7" ht="59" customHeight="1" spans="1:5">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" ht="63" customHeight="1" spans="1:5">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E7" s="8"/>
-    </row>
-    <row r="8" ht="63" customHeight="1" spans="1:5">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" ht="259.2" spans="1:5">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="8"/>
-    </row>
-    <row r="9" ht="259.2" spans="1:5">
-      <c r="A9" s="3">
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" ht="259.2" spans="1:5">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" ht="259.2" spans="1:5">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" ht="259.2" spans="1:5">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" ht="259.2" spans="1:5">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" ht="259.2" spans="1:5">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" ht="259.2" spans="1:5">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" ht="100" customHeight="1" spans="1:5">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" ht="100" customHeight="1" spans="1:5">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" ht="69" customHeight="1" spans="1:5">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D14" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" ht="69" customHeight="1" spans="1:5">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="8"/>
+      <c r="E14" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -4184,7 +4152,7 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="3074" progId="Package" r:id="rId3">
           <objectPr defaultSize="0" r:id="rId4">
@@ -4209,7 +4177,7 @@
         <oleObject shapeId="3074" progId="Package" r:id="rId3"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="3075" progId="Package" r:id="rId5">
           <objectPr defaultSize="0" r:id="rId6">
@@ -4234,7 +4202,7 @@
         <oleObject shapeId="3075" progId="Package" r:id="rId5"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="3077" progId="Package" r:id="rId7">
           <objectPr defaultSize="0" r:id="rId8">
@@ -4259,7 +4227,7 @@
         <oleObject shapeId="3077" progId="Package" r:id="rId7"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="3078" progId="Package" r:id="rId9">
           <objectPr defaultSize="0" r:id="rId10">
@@ -4284,7 +4252,7 @@
         <oleObject shapeId="3078" progId="Package" r:id="rId9"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="3079" progId="Package" r:id="rId11">
           <objectPr defaultSize="0" r:id="rId12">
@@ -4309,7 +4277,7 @@
         <oleObject shapeId="3079" progId="Package" r:id="rId11"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="3080" progId="Package" r:id="rId13">
           <objectPr defaultSize="0" r:id="rId14">
@@ -4334,7 +4302,7 @@
         <oleObject shapeId="3080" progId="Package" r:id="rId13"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="3082" progId="Package" r:id="rId15">
           <objectPr defaultSize="0" r:id="rId16">
@@ -4359,7 +4327,7 @@
         <oleObject shapeId="3082" progId="Package" r:id="rId15"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="3083" progId="Package" r:id="rId17">
           <objectPr defaultSize="0" r:id="rId18">
@@ -4384,7 +4352,7 @@
         <oleObject shapeId="3083" progId="Package" r:id="rId17"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="3084" progId="Package" r:id="rId19">
           <objectPr defaultSize="0" r:id="rId20">
@@ -4409,7 +4377,7 @@
         <oleObject shapeId="3084" progId="Package" r:id="rId19"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="3087" progId="Package" r:id="rId21">
           <objectPr defaultSize="0" r:id="rId22">
@@ -4434,7 +4402,7 @@
         <oleObject shapeId="3087" progId="Package" r:id="rId21"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="3088" progId="Package" r:id="rId23">
           <objectPr defaultSize="0" r:id="rId24">
@@ -4459,7 +4427,7 @@
         <oleObject shapeId="3088" progId="Package" r:id="rId23"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="3089" progId="Package" r:id="rId25">
           <objectPr defaultSize="0" r:id="rId26">
@@ -4484,7 +4452,7 @@
         <oleObject shapeId="3089" progId="Package" r:id="rId25"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="3092" progId="Package" r:id="rId27">
           <objectPr defaultSize="0" r:id="rId28">
@@ -4509,7 +4477,7 @@
         <oleObject shapeId="3092" progId="Package" r:id="rId27"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="3093" progId="Package" r:id="rId29">
           <objectPr defaultSize="0" r:id="rId30">
@@ -4534,7 +4502,7 @@
         <oleObject shapeId="3093" progId="Package" r:id="rId29"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
         <oleObject shapeId="3094" progId="Package" r:id="rId31">
           <objectPr defaultSize="0" r:id="rId32">
